--- a/biology/Médecine/Robert_Guthrie/Robert_Guthrie.xlsx
+++ b/biology/Médecine/Robert_Guthrie/Robert_Guthrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Guthrie est un médecin américain né le 28 juin 1916, mort à Seattle le 24 juin 1995, Robert Guthrie est considéré aujourd'hui dans le monde entier comme le grand pionnier des tests de masse chez les nouveau-nés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Guthrie est un médecin américain né le 28 juin 1916, mort à Seattle le 24 juin 1995, Robert Guthrie est considéré aujourd'hui dans le monde entier comme le grand pionnier des tests de masse chez les nouveau-nés.
 Son deuxième enfant était atteint de retard mental et l'une de ses nièces était atteinte de  phénylcétonurie, faute d'avoir été dépistée à temps.
 Il a alors procédé à de nombreuses expériences qui ont enfin conduit au développement du test de Guthrie, particulièrement simple et bon marché : quelques gouttes de sang sont prélevées au talon ou au doigt du bébé, sur un papier absorbant.
 Son test est encore aujourd'hui utilisé dans de très nombreux pays où il a été généralisé à tous les nouveau-nés. En France, le test a été présenté en 1963 et s'est généralisé vers 1980. Son test a permis de dépister à temps des dizaines de milliers d'enfants atteints de phénylcétonurie, de les faire bénéficier d'un régime très pauvre en phénylalanine et de les préserver d'un retard mental inéluctable.
